--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D570A6-4527-447D-AFC3-BD9C050CE1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E240A7-996A-42D5-A775-EC9037BAB6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="-8460" windowWidth="14610" windowHeight="15585" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="13524" yWindow="0" windowWidth="9612" windowHeight="12336" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,7 +236,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -574,7 +573,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,18 +662,18 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>0.09</v>
+        <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -697,7 +696,7 @@
       <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -720,7 +719,7 @@
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -743,7 +742,7 @@
       <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -766,7 +765,7 @@
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E240A7-996A-42D5-A775-EC9037BAB6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44DE6C-E0D0-495F-8F25-54DD72741E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13524" yWindow="0" windowWidth="9612" windowHeight="12336" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="47895" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -570,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
     <col min="7" max="7" width="52.21875" customWidth="1"/>
@@ -833,30 +833,6 @@
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44DE6C-E0D0-495F-8F25-54DD72741E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224D034-A82A-440E-9063-7478942F7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="28680" yWindow="-8580" windowWidth="29040" windowHeight="15720" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>variable</t>
   </si>
@@ -86,15 +86,9 @@
     <t>uncert_tree_parameter_age_1</t>
   </si>
   <si>
-    <t>uncert_tree_vulnerability</t>
-  </si>
-  <si>
     <t>uncert_tree_parameter_age_2</t>
   </si>
   <si>
-    <t>uncert_wholesail_threshhold</t>
-  </si>
-  <si>
     <t>If "too much fruits" are produced, it must be selled to wholesome market</t>
   </si>
   <si>
@@ -125,7 +119,22 @@
     <t>kg</t>
   </si>
   <si>
-    <t>uncert_wholesail_threshhold_t</t>
+    <t>uncert_wholesail_threshold</t>
+  </si>
+  <si>
+    <t>uncert_tree_vulnerability_mean</t>
+  </si>
+  <si>
+    <t>uncert_tree_vulnerability_var</t>
+  </si>
+  <si>
+    <t>uncert_quali_threshold</t>
+  </si>
+  <si>
+    <t>minimum quality for direct marketing</t>
+  </si>
+  <si>
+    <t>uncert_wholesail_threshold_t</t>
   </si>
 </sst>
 </file>
@@ -228,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,6 +245,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +620,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -622,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
@@ -633,99 +643,94 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <v>5000</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>4000</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>0.9</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -740,15 +745,15 @@
         <v>0.9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -763,15 +768,15 @@
         <v>0.9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -788,38 +793,72 @@
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>1000</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -832,6 +871,12 @@
       <c r="B14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224D034-A82A-440E-9063-7478942F7164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE836-10F3-46D0-8546-D9024AA7C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8580" windowWidth="29040" windowHeight="15720" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>variable</t>
   </si>
@@ -89,9 +89,6 @@
     <t>uncert_tree_parameter_age_2</t>
   </si>
   <si>
-    <t>If "too much fruits" are produced, it must be selled to wholesome market</t>
-  </si>
-  <si>
     <t>uncert_influence_quali</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Unknown factor that shows the influence of fruit quality</t>
   </si>
   <si>
-    <t>uncert_influence_supply_chain_invest</t>
-  </si>
-  <si>
     <t>Unknown influence of yield reliability</t>
   </si>
   <si>
@@ -113,28 +107,43 @@
     <t>uncert_risk_decrease_var</t>
   </si>
   <si>
-    <t>Unknown factor that shows the influence of supply chain building</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
-    <t>uncert_wholesail_threshold</t>
-  </si>
-  <si>
     <t>uncert_tree_vulnerability_mean</t>
   </si>
   <si>
     <t>uncert_tree_vulnerability_var</t>
   </si>
   <si>
-    <t>uncert_quali_threshold</t>
-  </si>
-  <si>
     <t>minimum quality for direct marketing</t>
   </si>
   <si>
-    <t>uncert_wholesail_threshold_t</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Unknown threshold: how much labor needs to be inested until enough network is build to enhance capapbilities of direct marketing</t>
+  </si>
+  <si>
+    <t>uncert_good_direct_market_maximum_sells_kg</t>
+  </si>
+  <si>
+    <t>uncert_poor_direct_market_maximum_sells_kg</t>
+  </si>
+  <si>
+    <t>How much kg wlanut the farmer could sell directly if have build a good supply chain</t>
+  </si>
+  <si>
+    <t>How much kg wlanut the farmer could sell directly if have build a poor supply chain</t>
+  </si>
+  <si>
+    <t>uncert_invest_until_good_market_mean_h</t>
+  </si>
+  <si>
+    <t>uncert_invest_until_good_market_var</t>
+  </si>
+  <si>
+    <t>uncert_minimum_quali_for_direct_percent</t>
   </si>
 </sst>
 </file>
@@ -580,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
     <col min="7" max="7" width="52.21875" customWidth="1"/>
@@ -620,7 +629,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -643,7 +652,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -707,30 +716,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3">
-        <v>5000</v>
+        <v>0.9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
@@ -745,7 +754,7 @@
         <v>0.9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -753,7 +762,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -768,58 +777,58 @@
         <v>0.9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -834,49 +843,54 @@
         <v>1500</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
         <v>0.2</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFE836-10F3-46D0-8546-D9024AA7C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426D1FB-3364-45FB-B204-A87C394AA82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8580" windowWidth="29040" windowHeight="15720" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>variable</t>
   </si>
@@ -98,15 +98,6 @@
     <t>Unknown factor that shows the influence of fruit quality</t>
   </si>
   <si>
-    <t>Unknown influence of yield reliability</t>
-  </si>
-  <si>
-    <t>uncert_risk_decrease_mean</t>
-  </si>
-  <si>
-    <t>uncert_risk_decrease_var</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -143,7 +134,7 @@
     <t>uncert_invest_until_good_market_var</t>
   </si>
   <si>
-    <t>uncert_minimum_quali_for_direct_percent</t>
+    <t>tree_labor_establishment_var_h_per_tree</t>
   </si>
 </sst>
 </file>
@@ -246,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,7 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -589,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +619,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -652,7 +642,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -739,156 +729,113 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1500</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>0.9</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5000</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3">
-        <v>0.7</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>1500</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B426D1FB-3364-45FB-B204-A87C394AA82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD578341-ABA4-470D-A7C3-8E824165FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="46365" yWindow="-8460" windowWidth="11340" windowHeight="15585" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -74,15 +74,9 @@
     <t>posnorm</t>
   </si>
   <si>
-    <t>"Best ages", Verschiebung auf y-Achse</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>"Kurvenstauchung"</t>
-  </si>
-  <si>
     <t>uncert_tree_parameter_age_1</t>
   </si>
   <si>
@@ -135,6 +129,24 @@
   </si>
   <si>
     <t>tree_labor_establishment_var_h_per_tree</t>
+  </si>
+  <si>
+    <t>uncert_minimum_quali_for_direct_percent</t>
+  </si>
+  <si>
+    <t>Minimum fruit quality [%] so they are marketable directly</t>
+  </si>
+  <si>
+    <t>Range of vulnerability, "curve compression"</t>
+  </si>
+  <si>
+    <t>Variance of unknown factors for vulnerability</t>
+  </si>
+  <si>
+    <t>"Best ages", turning point of curve on y-axis</t>
+  </si>
+  <si>
+    <t>Variance of unknown threshold of labor for a good local market</t>
   </si>
 </sst>
 </file>
@@ -237,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -245,6 +257,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -579,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -642,7 +657,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -656,11 +671,16 @@
       <c r="E3" s="3">
         <v>0.6</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -675,15 +695,15 @@
         <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -698,15 +718,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -721,15 +741,15 @@
         <v>0.9</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -744,15 +764,15 @@
         <v>5000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -770,12 +790,12 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -790,15 +810,15 @@
         <v>1500</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -813,15 +833,15 @@
         <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -837,6 +857,32 @@
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD578341-ABA4-470D-A7C3-8E824165FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820534B-ADF9-4C61-892B-7607F31FC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46365" yWindow="-8460" windowWidth="11340" windowHeight="15585" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
+    <workbookView xWindow="28680" yWindow="-8580" windowWidth="29040" windowHeight="15720" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>variable</t>
   </si>
@@ -65,9 +65,6 @@
     <t>tnorm_0_1</t>
   </si>
   <si>
-    <t>absolute</t>
-  </si>
-  <si>
     <t>Unknown factors which make the trees vulnerable</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>uncert_tree_vulnerability_var</t>
   </si>
   <si>
-    <t>minimum quality for direct marketing</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -134,19 +128,37 @@
     <t>uncert_minimum_quali_for_direct_percent</t>
   </si>
   <si>
-    <t>Minimum fruit quality [%] so they are marketable directly</t>
-  </si>
-  <si>
     <t>Range of vulnerability, "curve compression"</t>
   </si>
   <si>
-    <t>Variance of unknown factors for vulnerability</t>
-  </si>
-  <si>
     <t>"Best ages", turning point of curve on y-axis</t>
   </si>
   <si>
-    <t>Variance of unknown threshold of labor for a good local market</t>
+    <t>uncert_hay_good_market_capacity</t>
+  </si>
+  <si>
+    <t>t hay per ha</t>
+  </si>
+  <si>
+    <t>Hay yield that indicates if overall, a lot of hay is available at market - low prices! (conceptual, uncertain - thus a range between possible maximum yields)</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of unknown threshold of labor for a good local market</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of unknown factors for vulnerability</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>Coefficient of variation of minimum quality for direct marketing</t>
+  </si>
+  <si>
+    <t>Minimum fruit quality [relative] so they are marketable directly</t>
   </si>
 </sst>
 </file>
@@ -249,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -257,9 +269,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -594,15 +603,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B23A4E-12F4-44C3-BABB-162ED5397869}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
     <col min="7" max="7" width="52.21875" customWidth="1"/>
@@ -634,7 +643,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -649,41 +658,41 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.6</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -695,18 +704,18 @@
         <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -718,15 +727,15 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -741,18 +750,18 @@
         <v>0.9</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>1500</v>
@@ -764,41 +773,41 @@
         <v>5000</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>1000</v>
@@ -810,18 +819,18 @@
         <v>1500</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -833,41 +842,41 @@
         <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0.7</v>
@@ -875,14 +884,37 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/uncertain_variables.xlsx
+++ b/Data/uncertain_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidi\ownCloud - heidi.hoffmann@stud.uni-goettingen.de@owncloud.gwdg.de\0_PA_holistic_AFP\3_code\DA_agroforestry_orchard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9820534B-ADF9-4C61-892B-7607F31FC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF387A-894C-403E-A08E-E9004F90FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8580" windowWidth="29040" windowHeight="15720" xr2:uid="{656F599A-51C3-47B6-8914-3FF0E02077D8}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
